--- a/public/sample_imports/SampleCustomer.xlsx
+++ b/public/sample_imports/SampleCustomer.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\vs1_cloud_dev\public\sample_imports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Company</t>
   </si>
@@ -77,6 +82,12 @@
   </si>
   <si>
     <t>United States</t>
+  </si>
+  <si>
+    <t>Tax Code</t>
+  </si>
+  <si>
+    <t>NT</t>
   </si>
 </sst>
 </file>
@@ -615,6 +626,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -662,7 +676,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -697,7 +711,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -906,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +941,7 @@
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -964,8 +978,11 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1001,6 +1018,9 @@
       </c>
       <c r="L2" t="s">
         <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
